--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-879089.6584841926</v>
+        <v>-881915.4964463289</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>32.55518202532707</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>155.5625557110025</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.02639335536</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>86.60596428363007</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +823,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>186.9913243341643</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>162.7079352124036</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015062</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>212.568965117905</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3.607880984289393</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>116.6256592144144</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>105.4602935795767</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888208</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>257.7395675155196</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>340.1015239934309</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>72.16717921355946</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>193.20459779966</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>116.4592409305352</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>157.2488134238402</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>95.17051794363535</v>
+        <v>410.0532651913544</v>
       </c>
       <c r="H11" t="n">
-        <v>285.7136436798485</v>
+        <v>285.7136436798486</v>
       </c>
       <c r="I11" t="n">
-        <v>8.095607807851906</v>
+        <v>8.095607807852332</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>89.39771900809349</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>200.1162844667815</v>
+        <v>200.1162844667816</v>
       </c>
       <c r="U11" t="n">
         <v>250.925695121934</v>
@@ -1464,10 +1464,10 @@
         <v>134.5348018533689</v>
       </c>
       <c r="H12" t="n">
-        <v>85.10916742828846</v>
+        <v>85.10916742828852</v>
       </c>
       <c r="I12" t="n">
-        <v>2.818804639222151</v>
+        <v>2.81880463922235</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>119.512516116208</v>
+        <v>119.5125161162081</v>
       </c>
       <c r="T12" t="n">
-        <v>188.8436349678719</v>
+        <v>188.843634967872</v>
       </c>
       <c r="U12" t="n">
         <v>225.7565981790115</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>143.8227068404872</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>141.3284758190798</v>
       </c>
       <c r="G13" t="n">
         <v>165.6362467935498</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>182.9800314285129</v>
+        <v>182.980031428513</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.8844593782158</v>
       </c>
       <c r="U13" t="n">
         <v>286.1905893984049</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>72.26558381699965</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>131.4372279019601</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>35.41770597126713</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>50.06209150957608</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>189.7822042251785</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>106.9094576655908</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>143.9002723490403</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.6966889559083</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>70.58974991479261</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1686991936197</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3038,13 +3038,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3275,10 +3275,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545303</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.547332689898</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545304</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150.5322560492186</v>
+        <v>320.3587892151036</v>
       </c>
       <c r="C2" t="n">
-        <v>150.5322560492186</v>
+        <v>320.3587892151036</v>
       </c>
       <c r="D2" t="n">
-        <v>150.5322560492186</v>
+        <v>53.98113264792562</v>
       </c>
       <c r="E2" t="n">
-        <v>150.5322560492186</v>
+        <v>53.98113264792562</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052541</v>
@@ -4337,13 +4337,13 @@
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4361,19 +4361,19 @@
         <v>840.4214638411528</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411528</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="V2" t="n">
-        <v>574.0438072739748</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="W2" t="n">
-        <v>416.9099126163966</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="X2" t="n">
-        <v>416.9099126163966</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="Y2" t="n">
-        <v>416.9099126163966</v>
+        <v>586.7364457822816</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>466.66566151776</v>
+        <v>425.8856823234991</v>
       </c>
       <c r="C3" t="n">
-        <v>466.66566151776</v>
+        <v>425.8856823234991</v>
       </c>
       <c r="D3" t="n">
-        <v>317.7312518565088</v>
+        <v>425.8856823234991</v>
       </c>
       <c r="E3" t="n">
-        <v>158.4937968510533</v>
+        <v>266.6482273180436</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>120.1136693449286</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>120.1136693449286</v>
       </c>
       <c r="H3" t="n">
         <v>21.0971104001205</v>
@@ -4410,13 +4410,13 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>141.1068094710483</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>287.851233131345</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>478.4519222278689</v>
       </c>
       <c r="N3" t="n">
         <v>739.52866342936</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>949.0388642091482</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>949.0388642091482</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="U3" t="n">
-        <v>720.9030182459617</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="V3" t="n">
-        <v>720.9030182459617</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="W3" t="n">
-        <v>466.66566151776</v>
+        <v>633.645981088453</v>
       </c>
       <c r="X3" t="n">
-        <v>466.66566151776</v>
+        <v>633.645981088453</v>
       </c>
       <c r="Y3" t="n">
-        <v>466.66566151776</v>
+        <v>425.8856823234991</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>488.0630263227563</v>
+        <v>463.53435044219</v>
       </c>
       <c r="C4" t="n">
-        <v>319.1268433948493</v>
+        <v>294.598167514283</v>
       </c>
       <c r="D4" t="n">
-        <v>169.0102039825136</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
         <v>21.0971104001205</v>
@@ -4489,19 +4489,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>865.9753944159598</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>865.9753944159598</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>865.9753944159598</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>865.9753944159598</v>
       </c>
       <c r="W4" t="n">
-        <v>890.5040702965262</v>
+        <v>865.9753944159598</v>
       </c>
       <c r="X4" t="n">
-        <v>890.5040702965262</v>
+        <v>865.9753944159598</v>
       </c>
       <c r="Y4" t="n">
-        <v>669.711491152996</v>
+        <v>645.1828152724297</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.3840804899464</v>
+        <v>833.1938928750992</v>
       </c>
       <c r="C5" t="n">
-        <v>307.3840804899464</v>
+        <v>833.1938928750992</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>566.8162363079211</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>300.438579740743</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G5" t="n">
         <v>21.0971104001205</v>
@@ -4601,16 +4601,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388467</v>
+        <v>833.1938928750992</v>
       </c>
       <c r="W5" t="n">
-        <v>522.1002068716687</v>
+        <v>833.1938928750992</v>
       </c>
       <c r="X5" t="n">
-        <v>307.3840804899464</v>
+        <v>833.1938928750992</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.3840804899464</v>
+        <v>833.1938928750992</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>475.8035330399423</v>
+        <v>455.9221512163497</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>452.2778269897948</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I6" t="n">
         <v>21.0971104001205</v>
@@ -4659,10 +4659,10 @@
         <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>904.2569522304914</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4671,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>918.7159400366388</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="T6" t="n">
-        <v>918.7159400366388</v>
+        <v>691.0742594480924</v>
       </c>
       <c r="U6" t="n">
-        <v>918.7159400366388</v>
+        <v>691.0742594480924</v>
       </c>
       <c r="V6" t="n">
-        <v>683.5638318048962</v>
+        <v>455.9221512163497</v>
       </c>
       <c r="W6" t="n">
-        <v>683.5638318048962</v>
+        <v>455.9221512163497</v>
       </c>
       <c r="X6" t="n">
-        <v>683.5638318048962</v>
+        <v>455.9221512163497</v>
       </c>
       <c r="Y6" t="n">
-        <v>475.8035330399423</v>
+        <v>455.9221512163497</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2429270008668</v>
+        <v>581.690828849358</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2429270008668</v>
+        <v>581.690828849358</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2429270008668</v>
+        <v>581.690828849358</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2429270008668</v>
+        <v>475.1652797790786</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2429270008668</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2429270008668</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I7" t="n">
         <v>36.32155393434482</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407077</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407077</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407077</v>
+        <v>581.690828849358</v>
       </c>
       <c r="V7" t="n">
-        <v>671.3785036348208</v>
+        <v>581.690828849358</v>
       </c>
       <c r="W7" t="n">
-        <v>411.0355061443969</v>
+        <v>581.690828849358</v>
       </c>
       <c r="X7" t="n">
-        <v>411.0355061443969</v>
+        <v>581.690828849358</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2429270008668</v>
+        <v>581.690828849358</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1977.695380320765</v>
+        <v>1321.26637541962</v>
       </c>
       <c r="C8" t="n">
-        <v>1977.695380320765</v>
+        <v>1321.26637541962</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>1321.26637541962</v>
       </c>
       <c r="E8" t="n">
         <v>1248.370234799863</v>
@@ -4793,61 +4793,61 @@
         <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345445</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664336</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320765</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>1977.695380320765</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X8" t="n">
-        <v>1977.695380320765</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.695380320765</v>
+        <v>1321.26637541962</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4878,34 +4878,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.1019332386098</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="C10" t="n">
-        <v>157.1019332386098</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="D10" t="n">
-        <v>157.1019332386098</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386098</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1441.289960680901</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1218.311479875637</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>929.1931423794746</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V10" t="n">
-        <v>674.5086541735877</v>
+        <v>996.6198880451458</v>
       </c>
       <c r="W10" t="n">
-        <v>385.0914841366271</v>
+        <v>996.6198880451458</v>
       </c>
       <c r="X10" t="n">
-        <v>157.1019332386098</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="Y10" t="n">
-        <v>157.1019332386098</v>
+        <v>768.6303371471284</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2004.601973585495</v>
+        <v>2322.665354643797</v>
       </c>
       <c r="C11" t="n">
-        <v>1635.639456645083</v>
+        <v>1953.702837703385</v>
       </c>
       <c r="D11" t="n">
-        <v>1277.373758038332</v>
+        <v>1595.437139096635</v>
       </c>
       <c r="E11" t="n">
-        <v>891.5855054400881</v>
+        <v>1209.64888649839</v>
       </c>
       <c r="F11" t="n">
-        <v>480.5996006504806</v>
+        <v>798.6629817087828</v>
       </c>
       <c r="G11" t="n">
-        <v>384.4677643437782</v>
+        <v>384.4677643437784</v>
       </c>
       <c r="H11" t="n">
-        <v>95.86812426312314</v>
+        <v>95.86812426312329</v>
       </c>
       <c r="I11" t="n">
-        <v>87.6907426390303</v>
+        <v>87.69074263903002</v>
       </c>
       <c r="J11" t="n">
-        <v>349.5422747816851</v>
+        <v>349.5422747816838</v>
       </c>
       <c r="K11" t="n">
-        <v>792.7283617022076</v>
+        <v>792.7283617022051</v>
       </c>
       <c r="L11" t="n">
-        <v>1379.441653579587</v>
+        <v>1379.441653579583</v>
       </c>
       <c r="M11" t="n">
-        <v>2063.942675785908</v>
+        <v>2063.942675785902</v>
       </c>
       <c r="N11" t="n">
-        <v>2764.133448534146</v>
+        <v>2764.133448534138</v>
       </c>
       <c r="O11" t="n">
-        <v>3411.968478920142</v>
+        <v>3411.968478920131</v>
       </c>
       <c r="P11" t="n">
-        <v>3930.379688302488</v>
+        <v>3930.379688302476</v>
       </c>
       <c r="Q11" t="n">
-        <v>4271.512170187406</v>
+        <v>4271.512170187392</v>
       </c>
       <c r="R11" t="n">
-        <v>4384.537131951515</v>
+        <v>4384.537131951501</v>
       </c>
       <c r="S11" t="n">
-        <v>4294.236405680714</v>
+        <v>4384.537131951501</v>
       </c>
       <c r="T11" t="n">
-        <v>4092.098744603157</v>
+        <v>4182.399470873944</v>
       </c>
       <c r="U11" t="n">
-        <v>3838.638446500193</v>
+        <v>3928.93917277098</v>
       </c>
       <c r="V11" t="n">
-        <v>3507.575559156622</v>
+        <v>3597.876285427409</v>
       </c>
       <c r="W11" t="n">
-        <v>3154.806903886508</v>
+        <v>3245.107630157295</v>
       </c>
       <c r="X11" t="n">
-        <v>2781.341145625428</v>
+        <v>2871.641871896215</v>
       </c>
       <c r="Y11" t="n">
-        <v>2391.201813649616</v>
+        <v>2481.502539920403</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.5068760405562</v>
       </c>
       <c r="H12" t="n">
-        <v>90.53802005238602</v>
+        <v>90.53802005238593</v>
       </c>
       <c r="I12" t="n">
-        <v>87.6907426390303</v>
+        <v>87.69074263903002</v>
       </c>
       <c r="J12" t="n">
-        <v>87.6907426390303</v>
+        <v>87.69074263903002</v>
       </c>
       <c r="K12" t="n">
-        <v>87.6907426390303</v>
+        <v>87.69074263903002</v>
       </c>
       <c r="L12" t="n">
-        <v>554.2718930586052</v>
+        <v>262.164649686706</v>
       </c>
       <c r="M12" t="n">
-        <v>1118.106956559401</v>
+        <v>825.9997131875003</v>
       </c>
       <c r="N12" t="n">
-        <v>1711.273701363217</v>
+        <v>1419.166457991314</v>
       </c>
       <c r="O12" t="n">
-        <v>1939.57834975821</v>
+        <v>1939.578349758212</v>
       </c>
       <c r="P12" t="n">
-        <v>2337.921706980694</v>
+        <v>2337.921706980695</v>
       </c>
       <c r="Q12" t="n">
         <v>2554.284495696307</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>718.7393068427455</v>
+        <v>864.7220349380593</v>
       </c>
       <c r="C13" t="n">
-        <v>549.8031239148386</v>
+        <v>695.7858520101524</v>
       </c>
       <c r="D13" t="n">
-        <v>549.8031239148386</v>
+        <v>545.6692125978167</v>
       </c>
       <c r="E13" t="n">
-        <v>401.8900303324455</v>
+        <v>397.7561190154236</v>
       </c>
       <c r="F13" t="n">
-        <v>255.0000828345351</v>
+        <v>255.0000828345349</v>
       </c>
       <c r="G13" t="n">
-        <v>87.6907426390303</v>
+        <v>87.69074263903002</v>
       </c>
       <c r="H13" t="n">
-        <v>87.6907426390303</v>
+        <v>87.69074263903002</v>
       </c>
       <c r="I13" t="n">
-        <v>87.6907426390303</v>
+        <v>87.69074263903002</v>
       </c>
       <c r="J13" t="n">
-        <v>160.0799507391991</v>
+        <v>160.0799507391985</v>
       </c>
       <c r="K13" t="n">
-        <v>408.874493447407</v>
+        <v>408.8744934474058</v>
       </c>
       <c r="L13" t="n">
-        <v>782.7722857538145</v>
+        <v>782.7722857538126</v>
       </c>
       <c r="M13" t="n">
-        <v>1187.384206496568</v>
+        <v>1187.384206496565</v>
       </c>
       <c r="N13" t="n">
-        <v>1587.809976538022</v>
+        <v>1587.809976538018</v>
       </c>
       <c r="O13" t="n">
-        <v>1941.651690445766</v>
+        <v>1941.651690445762</v>
       </c>
       <c r="P13" t="n">
-        <v>2220.903722509953</v>
+        <v>2220.903722509948</v>
       </c>
       <c r="Q13" t="n">
-        <v>2330.808274589166</v>
+        <v>2330.808274589161</v>
       </c>
       <c r="R13" t="n">
-        <v>2330.808274589166</v>
+        <v>2330.808274589161</v>
       </c>
       <c r="S13" t="n">
-        <v>2145.97996001491</v>
+        <v>2145.979960014905</v>
       </c>
       <c r="T13" t="n">
-        <v>2145.97996001491</v>
+        <v>1925.894647511657</v>
       </c>
       <c r="U13" t="n">
-        <v>1856.898556582178</v>
+        <v>1636.813244078924</v>
       </c>
       <c r="V13" t="n">
-        <v>1602.214068376291</v>
+        <v>1382.128755873037</v>
       </c>
       <c r="W13" t="n">
-        <v>1312.79689833933</v>
+        <v>1092.711585836077</v>
       </c>
       <c r="X13" t="n">
-        <v>1084.807347441313</v>
+        <v>864.7220349380593</v>
       </c>
       <c r="Y13" t="n">
-        <v>864.014768297783</v>
+        <v>864.7220349380593</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,28 +5288,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,16 +5528,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925226</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101294</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1975.033022579362</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1720.348534373475</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1430.931364336514</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1202.941813438497</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>982.1492342949665</v>
       </c>
     </row>
     <row r="20">
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273906</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273906</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>692.9625378792909</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C22" t="n">
-        <v>530.3315352860773</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="23">
@@ -5981,52 +5981,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>527.7722521572603</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D25" t="n">
-        <v>527.7722521572603</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E25" t="n">
-        <v>527.7722521572603</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>380.8823046593499</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>662.1522880254209</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C28" t="n">
-        <v>493.2161050975141</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D28" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2125.759767795858</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1836.684541140056</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1582.000052934169</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1292.582882897208</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X28" t="n">
-        <v>1064.593331999191</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y28" t="n">
-        <v>843.8007528556607</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>198.0274703142544</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>198.0274703142544</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7151,22 +7151,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,34 +7187,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,19 +7312,19 @@
         <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7333,10 +7333,10 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,16 +7345,16 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7640,55 +7640,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,10 +7801,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.825546038073</v>
@@ -8058,7 +8058,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127241</v>
+        <v>45.78351343583191</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544051</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167812</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.262887399594547</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>294.8344935184739</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>-3.940996767551754e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>199.5240281912533</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>354.9684517834692</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>193.6784130064106</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>17.72783990942946</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>225.4850282396403</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>314.8827472477191</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>89.39771900809373</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.00927334145013</v>
+        <v>179.8319801819446</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>4.092572203851461</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>141.2914593394306</v>
       </c>
       <c r="I13" t="n">
-        <v>84.63724470254066</v>
+        <v>84.63724470254081</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>71.41605259498895</v>
+        <v>71.41605259498918</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.8844593782158</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-2.945315721635453e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>213.9188905722445</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.086645835572564e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>48.39475227997718</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>117.1847295890518</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>62.35543909864953</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>39.52450498097839</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>21.62386594322851</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.1352912260290111</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>146.8157004124957</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>37.12601365260413</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-8.384404281969182e-13</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-9.521272659185342e-13</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1071069.240628815</v>
+        <v>1071069.240628818</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1156610.724507542</v>
+        <v>1156610.72450754</v>
       </c>
     </row>
     <row r="6">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>197689.1744726803</v>
+        <v>197689.1744726808</v>
       </c>
       <c r="C2" t="n">
         <v>225786.4867126778</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="E2" t="n">
-        <v>214274.6672237514</v>
+        <v>214274.6672237509</v>
       </c>
       <c r="F2" t="n">
+        <v>221965.3149147518</v>
+      </c>
+      <c r="G2" t="n">
         <v>221965.3149147517</v>
-      </c>
-      <c r="G2" t="n">
-        <v>221965.3149147516</v>
       </c>
       <c r="H2" t="n">
         <v>221965.3149147517</v>
@@ -26335,10 +26335,10 @@
         <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
+        <v>221965.3149147516</v>
+      </c>
+      <c r="K2" t="n">
         <v>221965.3149147517</v>
-      </c>
-      <c r="K2" t="n">
-        <v>221965.3149147516</v>
       </c>
       <c r="L2" t="n">
         <v>221965.3149147517</v>
@@ -26372,10 +26372,10 @@
         <v>391128.3638059435</v>
       </c>
       <c r="E3" t="n">
-        <v>434675.1584941929</v>
+        <v>434675.1584941895</v>
       </c>
       <c r="F3" t="n">
-        <v>71081.82395224166</v>
+        <v>71081.82395224467</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756975</v>
+        <v>95382.64613756971</v>
       </c>
       <c r="M3" t="n">
-        <v>132952.4633526851</v>
+        <v>132952.4633526841</v>
       </c>
       <c r="N3" t="n">
-        <v>18755.04135001044</v>
+        <v>18755.04135001133</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188437.4283489606</v>
+        <v>188437.4283489615</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982313</v>
@@ -26424,40 +26424,40 @@
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8077.581168762396</v>
+        <v>8077.581168762292</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731958</v>
+        <v>8117.312426731984</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731945</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426732005</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.31242673194</v>
+        <v>8117.312426732056</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.31242673194</v>
+        <v>8117.312426731977</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731998</v>
       </c>
       <c r="M4" t="n">
-        <v>16108.17168982543</v>
+        <v>16108.17168982552</v>
       </c>
       <c r="N4" t="n">
-        <v>16108.17168982542</v>
+        <v>16108.17168982548</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982541</v>
+        <v>16108.17168982547</v>
       </c>
       <c r="P4" t="n">
-        <v>16108.17168982541</v>
+        <v>16108.17168982547</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>95111.54044944461</v>
+        <v>95111.54044944432</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-733884.0376717397</v>
+        <v>-734139.4677830129</v>
       </c>
       <c r="C6" t="n">
         <v>-84015.18388981975</v>
@@ -26528,40 +26528,40 @@
         <v>-392597.649794974</v>
       </c>
       <c r="E6" t="n">
-        <v>-323589.6128886485</v>
+        <v>-323694.2657930899</v>
       </c>
       <c r="F6" t="n">
-        <v>41643.64871187095</v>
+        <v>41608.91078643236</v>
       </c>
       <c r="G6" t="n">
-        <v>112725.4726641125</v>
+        <v>112690.734738677</v>
       </c>
       <c r="H6" t="n">
-        <v>112725.4726641126</v>
+        <v>112690.7347386769</v>
       </c>
       <c r="I6" t="n">
-        <v>112725.4726641126</v>
+        <v>112690.7347386769</v>
       </c>
       <c r="J6" t="n">
-        <v>43726.31824499856</v>
+        <v>43691.58031956271</v>
       </c>
       <c r="K6" t="n">
-        <v>112725.4726641126</v>
+        <v>112690.7347386769</v>
       </c>
       <c r="L6" t="n">
-        <v>17342.82652654283</v>
+        <v>17308.08860110717</v>
       </c>
       <c r="M6" t="n">
-        <v>-26438.26418374786</v>
+        <v>-26438.26418374693</v>
       </c>
       <c r="N6" t="n">
-        <v>87759.15781892675</v>
+        <v>87759.1578189258</v>
       </c>
       <c r="O6" t="n">
-        <v>106514.1991689373</v>
+        <v>106514.1991689372</v>
       </c>
       <c r="P6" t="n">
-        <v>106514.1991689373</v>
+        <v>106514.1991689372</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26719,13 +26719,13 @@
         <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1305.80624054044</v>
+        <v>1305.806240540437</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,25 +26790,25 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1096.134282987879</v>
+        <v>1096.134282987875</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,19 +26817,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>320.009878348061</v>
       </c>
       <c r="E3" t="n">
-        <v>371.7413484229004</v>
+        <v>371.7413484228975</v>
       </c>
       <c r="F3" t="n">
-        <v>62.16925980123438</v>
+        <v>62.16925980123688</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>455.5494508878398</v>
+        <v>455.5494508878363</v>
       </c>
       <c r="F4" t="n">
-        <v>76.57400511176979</v>
+        <v>76.5740051117732</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27039,13 +27039,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.870952098533</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>455.5494508878398</v>
+        <v>455.549450887836</v>
       </c>
       <c r="N4" t="n">
-        <v>76.57400511176979</v>
+        <v>76.57400511177343</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>455.5494508878398</v>
+        <v>455.5494508878363</v>
       </c>
       <c r="N4" t="n">
-        <v>76.57400511176979</v>
+        <v>76.5740051117732</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>155.1590134294296</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>19.35241193291512</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27461,19 +27461,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>1.452926915849744</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>60.5439711285687</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888208</v>
@@ -27585,7 +27585,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>123.8150631241874</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917676</v>
+        <v>90.9691616191767</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27673,13 +27673,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862871</v>
+        <v>108.3072476105184</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>157.162135560564</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>169.1006180040264</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>30.52427619778442</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>40.97366906699251</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117124</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>28.78343082107136</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,10 +27856,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>14.58151762725208</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>309.7631908587023</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,16 +28017,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.457862562077423</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>135.6784023932929</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.157194799753628e-12</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,19 +29323,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.249472323780657</v>
+        <v>5.249472323780647</v>
       </c>
       <c r="H11" t="n">
-        <v>53.76115843591867</v>
+        <v>53.76115843591856</v>
       </c>
       <c r="I11" t="n">
-        <v>202.380281762554</v>
+        <v>202.3802817625536</v>
       </c>
       <c r="J11" t="n">
-        <v>445.542401640479</v>
+        <v>445.5424016404781</v>
       </c>
       <c r="K11" t="n">
-        <v>667.7525651061144</v>
+        <v>667.752565106113</v>
       </c>
       <c r="L11" t="n">
-        <v>828.4061037350168</v>
+        <v>828.4061037350151</v>
       </c>
       <c r="M11" t="n">
-        <v>921.7614071730511</v>
+        <v>921.7614071730492</v>
       </c>
       <c r="N11" t="n">
-        <v>936.676470412993</v>
+        <v>936.676470412991</v>
       </c>
       <c r="O11" t="n">
-        <v>884.477029993399</v>
+        <v>884.4770299933972</v>
       </c>
       <c r="P11" t="n">
-        <v>754.8806820000639</v>
+        <v>754.8806820000623</v>
       </c>
       <c r="Q11" t="n">
-        <v>566.8839544046689</v>
+        <v>566.8839544046677</v>
       </c>
       <c r="R11" t="n">
-        <v>329.752165858687</v>
+        <v>329.7521658586863</v>
       </c>
       <c r="S11" t="n">
-        <v>119.6223505781519</v>
+        <v>119.6223505781516</v>
       </c>
       <c r="T11" t="n">
-        <v>22.97956509734984</v>
+        <v>22.97956509734979</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4199577859024525</v>
+        <v>0.4199577859024516</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.808715309841701</v>
+        <v>2.808715309841694</v>
       </c>
       <c r="H12" t="n">
-        <v>27.126276808208</v>
+        <v>27.12627680820795</v>
       </c>
       <c r="I12" t="n">
-        <v>96.70357536077785</v>
+        <v>96.70357536077765</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>609.848471112778</v>
+        <v>314.7906495250014</v>
       </c>
       <c r="M12" t="n">
-        <v>711.6644010945395</v>
+        <v>711.664401094538</v>
       </c>
       <c r="N12" t="n">
-        <v>730.5000401679956</v>
+        <v>730.500040167994</v>
       </c>
       <c r="O12" t="n">
-        <v>373.2070003989827</v>
+        <v>668.2648219867649</v>
       </c>
       <c r="P12" t="n">
-        <v>536.3414349117893</v>
+        <v>536.3414349117882</v>
       </c>
       <c r="Q12" t="n">
-        <v>358.5300455159336</v>
+        <v>358.5300455159328</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>52.1706549876298</v>
+        <v>52.17065498762968</v>
       </c>
       <c r="T12" t="n">
-        <v>11.32109372694966</v>
+        <v>11.32109372694963</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1847839019632698</v>
+        <v>0.1847839019632694</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.354732564908989</v>
+        <v>2.354732564908984</v>
       </c>
       <c r="H13" t="n">
-        <v>20.93571316800903</v>
+        <v>20.93571316800898</v>
       </c>
       <c r="I13" t="n">
-        <v>70.81323022471763</v>
+        <v>70.81323022471747</v>
       </c>
       <c r="J13" t="n">
-        <v>166.4795923390655</v>
+        <v>166.4795923390652</v>
       </c>
       <c r="K13" t="n">
-        <v>273.5771107230625</v>
+        <v>273.5771107230619</v>
       </c>
       <c r="L13" t="n">
-        <v>350.0845124229238</v>
+        <v>350.0845124229231</v>
       </c>
       <c r="M13" t="n">
-        <v>369.1150328793245</v>
+        <v>369.1150328793237</v>
       </c>
       <c r="N13" t="n">
-        <v>360.3383024101186</v>
+        <v>360.3383024101178</v>
       </c>
       <c r="O13" t="n">
-        <v>332.8307447200452</v>
+        <v>332.8307447200445</v>
       </c>
       <c r="P13" t="n">
-        <v>284.7942003959016</v>
+        <v>284.794200395901</v>
       </c>
       <c r="Q13" t="n">
-        <v>197.1767423216064</v>
+        <v>197.176742321606</v>
       </c>
       <c r="R13" t="n">
-        <v>105.8773387821805</v>
+        <v>105.8773387821803</v>
       </c>
       <c r="S13" t="n">
-        <v>41.03656660845937</v>
+        <v>41.03656660845928</v>
       </c>
       <c r="T13" t="n">
-        <v>10.06113005006568</v>
+        <v>10.06113005006566</v>
       </c>
       <c r="U13" t="n">
-        <v>0.128439958085945</v>
+        <v>0.1284399580859447</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>290.6810969936916</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>752.2150000824574</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>324.9782573297445</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>688.8020111197783</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338208</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832324</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>121.2219182534624</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34787,7 +34787,7 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -35027,13 +35027,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>123.5028874333356</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>630.2591755145969</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35273,7 +35273,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>264.4964971137927</v>
+        <v>264.4964971137918</v>
       </c>
       <c r="K11" t="n">
-        <v>447.6627140611338</v>
+        <v>447.6627140611325</v>
       </c>
       <c r="L11" t="n">
-        <v>592.6396887650296</v>
+        <v>592.6396887650278</v>
       </c>
       <c r="M11" t="n">
-        <v>691.4151739457784</v>
+        <v>691.4151739457765</v>
       </c>
       <c r="N11" t="n">
-        <v>707.263406816402</v>
+        <v>707.2634068164</v>
       </c>
       <c r="O11" t="n">
-        <v>654.3788185717123</v>
+        <v>654.3788185717104</v>
       </c>
       <c r="P11" t="n">
-        <v>523.6476862447944</v>
+        <v>523.6476862447928</v>
       </c>
       <c r="Q11" t="n">
-        <v>344.5782645302194</v>
+        <v>344.5782645302182</v>
       </c>
       <c r="R11" t="n">
-        <v>114.1666280445549</v>
+        <v>114.1666280445542</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>471.2940913329039</v>
+        <v>176.2362697451272</v>
       </c>
       <c r="M12" t="n">
-        <v>569.5303671725212</v>
+        <v>569.5303671725196</v>
       </c>
       <c r="N12" t="n">
-        <v>599.1583280846623</v>
+        <v>599.1583280846608</v>
       </c>
       <c r="O12" t="n">
-        <v>230.6107559545383</v>
+        <v>525.6685775423205</v>
       </c>
       <c r="P12" t="n">
-        <v>402.367027497459</v>
+        <v>402.3670274974579</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.5482714299121</v>
+        <v>218.5482714299113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>73.12041222239276</v>
+        <v>73.12041222239242</v>
       </c>
       <c r="K13" t="n">
-        <v>251.3076188971797</v>
+        <v>251.3076188971791</v>
       </c>
       <c r="L13" t="n">
-        <v>377.6745376832399</v>
+        <v>377.6745376832392</v>
       </c>
       <c r="M13" t="n">
-        <v>408.6989098411651</v>
+        <v>408.6989098411643</v>
       </c>
       <c r="N13" t="n">
-        <v>404.4704747893471</v>
+        <v>404.4704747893464</v>
       </c>
       <c r="O13" t="n">
-        <v>357.4158726340849</v>
+        <v>357.4158726340842</v>
       </c>
       <c r="P13" t="n">
-        <v>282.0727596607951</v>
+        <v>282.0727596607945</v>
       </c>
       <c r="Q13" t="n">
-        <v>111.014699069912</v>
+        <v>111.0146990699116</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>159.3393849103583</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001044</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>620.8732879991242</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>546.2057666753338</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394658</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998991</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016748</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
         <v>144.6869047919381</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
